--- a/spec/files/template_0_2_0_simpletest.xlsx
+++ b/spec/files/template_0_2_0_simpletest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="614">
   <si>
     <t># Variable</t>
   </si>
@@ -1867,6 +1867,9 @@
   </si>
   <si>
     <t>0.2.0</t>
+  </si>
+  <si>
+    <t>simple_test</t>
   </si>
 </sst>
 </file>
@@ -5203,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5344,7 +5347,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>494</v>
@@ -5596,9 +5599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5752,7 +5755,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
